--- a/data_9.xlsx
+++ b/data_9.xlsx
@@ -109,16 +109,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>6.499096456648178</v>
+        <v>6.4583254830123265</v>
       </c>
       <c r="C2" t="n">
-        <v>0.10870143117562381</v>
+        <v>0.1105433489489474</v>
       </c>
       <c r="D2" t="n">
-        <v>5.249210527447402</v>
+        <v>5.271246078959254</v>
       </c>
       <c r="E2" t="n">
-        <v>0.20606371026644527</v>
+        <v>0.20697484800236143</v>
       </c>
       <c r="F2" t="n">
         <v>0.04856762367364408</v>
@@ -132,7 +132,7 @@
         <v>9.919169695256857</v>
       </c>
       <c r="C3" t="n">
-        <v>0.25709703870719136</v>
+        <v>0.2565657334615336</v>
       </c>
       <c r="D3" t="n">
         <v>8.996656553143373</v>
@@ -152,7 +152,7 @@
         <v>10.489826121904388</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6342015301171848</v>
+        <v>0.632890917589519</v>
       </c>
       <c r="D4" t="n">
         <v>10.398394809440795</v>
